--- a/data/trans_orig/P6907S1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D592AB84-B5A6-4694-B4DA-EDF316B74721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AA4C33D-32A7-4F78-BA70-BCF857D4D28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BA02BBBD-8C0B-4868-923E-F1651D843D87}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FEE54EB7-5F10-44E2-A998-6E0B07AF1404}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="486">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>8,97%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -89,1384 +89,1414 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>15,52%</t>
+    <t>22,21%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
+    <t>79,28%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
     <t>25,31%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>74,69%</t>
   </si>
   <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>18,16%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
   </si>
   <si>
     <t>84,25%</t>
   </si>
   <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>81,84%</t>
   </si>
   <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>87,42%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
+    <t>93,78%</t>
+  </si>
+  <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8FFBFD-ED7B-4C9C-8D53-0FBD64CB4A09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3894BF6D-8199-48CC-89F8-4EC6C4CF8F15}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2160,10 +2190,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2172,13 +2202,13 @@
         <v>1959</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -2187,13 +2217,13 @@
         <v>7846</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,13 +2238,13 @@
         <v>66510</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -2223,10 +2253,10 @@
         <v>30729</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -2238,13 +2268,13 @@
         <v>97238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,7 +2330,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2312,13 +2342,13 @@
         <v>3912</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2327,13 +2357,13 @@
         <v>1996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2342,13 +2372,13 @@
         <v>5908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2393,13 @@
         <v>32703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -2378,10 +2408,10 @@
         <v>19728</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -2393,13 +2423,13 @@
         <v>52431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,7 +2485,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2467,13 +2497,13 @@
         <v>3934</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2482,13 +2512,13 @@
         <v>2029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2497,13 +2527,13 @@
         <v>5963</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2548,13 @@
         <v>54389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2533,10 +2563,10 @@
         <v>20677</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -2548,13 +2578,13 @@
         <v>75066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2640,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2622,13 +2652,13 @@
         <v>2834</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2637,13 +2667,13 @@
         <v>1994</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2652,13 +2682,13 @@
         <v>4828</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2703,13 @@
         <v>20120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2688,10 +2718,10 @@
         <v>4976</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -2703,13 +2733,13 @@
         <v>25097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,7 +2795,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2777,13 +2807,13 @@
         <v>5955</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2792,13 +2822,13 @@
         <v>991</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2807,13 +2837,13 @@
         <v>6946</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2858,13 @@
         <v>35855</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2843,10 +2873,10 @@
         <v>13103</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -2858,13 +2888,13 @@
         <v>48957</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,7 +2950,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2932,13 +2962,13 @@
         <v>10705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2947,13 +2977,13 @@
         <v>6199</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -2962,13 +2992,13 @@
         <v>16904</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +3013,13 @@
         <v>77743</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -2998,13 +3028,13 @@
         <v>37336</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
         <v>112</v>
@@ -3013,13 +3043,13 @@
         <v>115079</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,7 +3105,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3087,13 +3117,13 @@
         <v>6438</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -3102,13 +3132,13 @@
         <v>7386</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -3117,13 +3147,13 @@
         <v>13823</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3168,13 @@
         <v>102477</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -3153,13 +3183,13 @@
         <v>42400</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>143</v>
@@ -3168,13 +3198,13 @@
         <v>144878</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3272,13 @@
         <v>43508</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -3257,13 +3287,13 @@
         <v>23625</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -3272,13 +3302,13 @@
         <v>67134</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3323,13 @@
         <v>428797</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>192</v>
@@ -3308,13 +3338,13 @@
         <v>196496</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>602</v>
@@ -3323,13 +3353,13 @@
         <v>625293</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,7 +3415,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3409,7 +3439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F537BDF-4C8E-466A-94F1-0CACCABDEBE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6014EC-2054-47F9-8106-1753DDC59400}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3426,7 +3456,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3531,39 +3561,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,39 +3606,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,39 +3651,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3700,13 @@
         <v>947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3685,13 +3715,13 @@
         <v>998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3700,13 +3730,13 @@
         <v>1945</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,10 +3751,10 @@
         <v>23336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -3736,10 +3766,10 @@
         <v>15233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -3751,10 +3781,10 @@
         <v>38570</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -3813,7 +3843,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3825,13 +3855,13 @@
         <v>1007</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3843,10 +3873,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3855,13 +3885,13 @@
         <v>1007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,10 +3906,10 @@
         <v>10715</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -3894,7 +3924,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3906,10 +3936,10 @@
         <v>16826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -3968,7 +3998,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3980,13 +4010,13 @@
         <v>1891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3995,13 +4025,13 @@
         <v>904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4010,13 +4040,13 @@
         <v>2795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,10 +4061,10 @@
         <v>23200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -4046,10 +4076,10 @@
         <v>19956</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -4061,13 +4091,13 @@
         <v>43155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,7 +4153,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4135,13 +4165,13 @@
         <v>1965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4153,10 +4183,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4165,13 +4195,13 @@
         <v>1965</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,10 +4216,10 @@
         <v>8245</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -4204,7 +4234,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4216,10 +4246,10 @@
         <v>17028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -4278,7 +4308,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4293,10 +4323,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4308,10 +4338,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4323,10 +4353,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,7 +4374,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -4359,7 +4389,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4374,7 +4404,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4433,7 +4463,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4448,10 +4478,10 @@
         <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4460,13 +4490,13 @@
         <v>947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -4475,13 +4505,13 @@
         <v>947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,7 +4529,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
@@ -4511,10 +4541,10 @@
         <v>27299</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -4526,10 +4556,10 @@
         <v>53297</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>26</v>
@@ -4588,7 +4618,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4600,13 +4630,13 @@
         <v>2017</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4618,10 +4648,10 @@
         <v>15</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -4630,13 +4660,13 @@
         <v>2017</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,10 +4681,10 @@
         <v>20519</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -4669,7 +4699,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -4681,10 +4711,10 @@
         <v>33747</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -4755,13 +4785,13 @@
         <v>7827</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -4770,13 +4800,13 @@
         <v>2849</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -4785,13 +4815,13 @@
         <v>10676</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4836,13 @@
         <v>134750</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="H29" s="7">
         <v>91</v>
@@ -4821,13 +4851,13 @@
         <v>97312</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M29" s="7">
         <v>221</v>
@@ -4836,13 +4866,13 @@
         <v>232062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,7 +4928,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4922,7 +4952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20332866-4146-4F82-95F3-E404EBE6A35A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F224F1-FD5E-4B92-97D1-4C715A488072}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4939,7 +4969,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5046,13 +5076,13 @@
         <v>3108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5061,13 +5091,13 @@
         <v>2566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5076,13 +5106,13 @@
         <v>5674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5127,13 @@
         <v>55469</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -5112,10 +5142,10 @@
         <v>38318</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5127,13 +5157,13 @@
         <v>93787</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5231,13 @@
         <v>3153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5219,10 +5249,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5231,13 +5261,13 @@
         <v>3153</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5282,13 @@
         <v>79633</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H8" s="7">
         <v>41</v>
@@ -5270,7 +5300,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -5282,13 +5312,13 @@
         <v>122330</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,7 +5374,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5356,13 +5386,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5371,13 +5401,13 @@
         <v>815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5386,13 +5416,13 @@
         <v>1680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,10 +5437,10 @@
         <v>20389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -5422,10 +5452,10 @@
         <v>11686</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5437,10 +5467,10 @@
         <v>32075</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -5499,7 +5529,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5511,13 +5541,13 @@
         <v>898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5529,10 +5559,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5541,13 +5571,13 @@
         <v>898</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,10 +5592,10 @@
         <v>31567</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -5580,7 +5610,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5592,10 +5622,10 @@
         <v>61502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -5654,7 +5684,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5669,10 +5699,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5684,10 +5714,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5699,10 +5729,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,7 +5750,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5735,7 +5765,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5750,7 +5780,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -5809,7 +5839,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5821,13 +5851,13 @@
         <v>1938</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5839,10 +5869,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5851,13 +5881,13 @@
         <v>1938</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,10 +5902,10 @@
         <v>20496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5890,7 +5920,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -5902,10 +5932,10 @@
         <v>27922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5964,7 +5994,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5976,13 +6006,13 @@
         <v>2241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5991,13 +6021,13 @@
         <v>1953</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -6006,13 +6036,13 @@
         <v>4194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,10 +6057,10 @@
         <v>76101</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>26</v>
@@ -6042,10 +6072,10 @@
         <v>53729</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -6057,13 +6087,13 @@
         <v>129830</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
+        <v>331</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,7 +6149,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6134,10 +6164,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6149,10 +6179,10 @@
         <v>15</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6164,10 +6194,10 @@
         <v>15</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,7 +6215,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -6200,7 +6230,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -6215,7 +6245,7 @@
         <v>26</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>30</v>
@@ -6286,13 +6316,13 @@
         <v>12203</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -6301,13 +6331,13 @@
         <v>5334</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -6316,13 +6346,13 @@
         <v>17538</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6367,13 @@
         <v>337798</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H29" s="7">
         <v>202</v>
@@ -6352,13 +6382,13 @@
         <v>210964</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="M29" s="7">
         <v>512</v>
@@ -6367,13 +6397,13 @@
         <v>548761</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,7 +6459,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6453,7 +6483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCFFDC4-B58F-4DD9-A470-B80EC3DED2F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E43F87-E083-4C92-A8B7-1A596B829DB9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6470,7 +6500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6577,13 +6607,13 @@
         <v>774</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6592,13 +6622,13 @@
         <v>1365</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6607,13 +6637,13 @@
         <v>2139</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,10 +6658,10 @@
         <v>19797</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -6643,13 +6673,13 @@
         <v>13478</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -6658,13 +6688,13 @@
         <v>33275</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,13 +6762,13 @@
         <v>4210</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6747,13 +6777,13 @@
         <v>2482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6762,13 +6792,13 @@
         <v>6693</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6813,13 @@
         <v>41791</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H8" s="7">
         <v>56</v>
@@ -6798,13 +6828,13 @@
         <v>46139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M8" s="7">
         <v>85</v>
@@ -6813,13 +6843,13 @@
         <v>87929</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,7 +6905,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6887,13 +6917,13 @@
         <v>7449</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -6902,13 +6932,13 @@
         <v>8458</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>393</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -6917,13 +6947,13 @@
         <v>15907</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,13 +6968,13 @@
         <v>43281</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -6953,13 +6983,13 @@
         <v>40463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>402</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -6968,13 +6998,13 @@
         <v>83744</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,7 +7060,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7042,13 +7072,13 @@
         <v>4987</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7057,13 +7087,13 @@
         <v>873</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -7072,13 +7102,13 @@
         <v>5860</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,10 +7123,10 @@
         <v>37147</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -7108,10 +7138,10 @@
         <v>61286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -7123,13 +7153,13 @@
         <v>98433</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,7 +7215,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7197,13 +7227,13 @@
         <v>573</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>37</v>
+        <v>422</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7215,10 +7245,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7227,13 +7257,13 @@
         <v>573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,10 +7278,10 @@
         <v>18869</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>425</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -7266,7 +7296,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -7278,10 +7308,10 @@
         <v>30849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7340,7 +7370,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7352,13 +7382,13 @@
         <v>8277</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7367,13 +7397,13 @@
         <v>1831</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -7382,13 +7412,13 @@
         <v>10107</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7433,13 @@
         <v>24429</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -7418,13 +7448,13 @@
         <v>30640</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -7433,13 +7463,13 @@
         <v>55070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,7 +7525,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7507,13 +7537,13 @@
         <v>11716</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -7522,13 +7552,13 @@
         <v>13638</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -7537,13 +7567,13 @@
         <v>25354</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7588,13 @@
         <v>62661</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -7573,13 +7603,13 @@
         <v>61442</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="M23" s="7">
         <v>145</v>
@@ -7588,13 +7618,13 @@
         <v>124104</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,7 +7680,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7665,10 +7695,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7677,13 +7707,13 @@
         <v>2213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -7692,13 +7722,13 @@
         <v>2213</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7716,7 +7746,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -7728,10 +7758,10 @@
         <v>64923</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -7743,10 +7773,10 @@
         <v>131978</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -7817,13 +7847,13 @@
         <v>37986</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -7832,13 +7862,13 @@
         <v>30860</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
@@ -7847,13 +7877,13 @@
         <v>68846</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7898,13 @@
         <v>315032</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="H29" s="7">
         <v>433</v>
@@ -7883,13 +7913,13 @@
         <v>330351</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="M29" s="7">
         <v>736</v>
@@ -7898,13 +7928,13 @@
         <v>645382</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,7 +7990,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6907S1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AA4C33D-32A7-4F78-BA70-BCF857D4D28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8FF13D-54E9-4CFA-B27B-3B8476FF688C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FEE54EB7-5F10-44E2-A998-6E0B07AF1404}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6D9A738-3DBC-4321-BC40-24788E44E787}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,10 +77,10 @@
     <t>8,97%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -89,151 +89,151 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,21%</t>
+    <t>16,5%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>72,31%</t>
+    <t>71,89%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -242,49 +242,49 @@
     <t>6,75%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>28,73%</t>
+    <t>29,2%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>91,06%</t>
   </si>
   <si>
-    <t>71,27%</t>
+    <t>70,8%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -293,49 +293,49 @@
     <t>12,35%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>28,61%</t>
   </si>
   <si>
-    <t>71,8%</t>
+    <t>71,45%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>87,65%</t>
   </si>
   <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>71,39%</t>
   </si>
   <si>
-    <t>28,2%</t>
+    <t>28,55%</t>
   </si>
   <si>
     <t>83,87%</t>
   </si>
   <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -347,28 +347,28 @@
     <t>5,02%</t>
   </si>
   <si>
-    <t>29,98%</t>
+    <t>30,67%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>36,05%</t>
+    <t>28,56%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>85,76%</t>
   </si>
   <si>
-    <t>70,02%</t>
+    <t>69,33%</t>
   </si>
   <si>
     <t>94,98%</t>
@@ -377,16 +377,16 @@
     <t>92,97%</t>
   </si>
   <si>
-    <t>63,95%</t>
+    <t>71,44%</t>
   </si>
   <si>
     <t>87,58%</t>
   </si>
   <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -395,274 +395,286 @@
     <t>12,1%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
   </si>
   <si>
     <t>92,46%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
+    <t>77,4%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>80,57%</t>
+    <t>80,7%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>51,68%</t>
+    <t>50,65%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -671,13 +683,13 @@
     <t>10,35%</t>
   </si>
   <si>
-    <t>32,41%</t>
+    <t>29,84%</t>
   </si>
   <si>
     <t>80,75%</t>
   </si>
   <si>
-    <t>48,32%</t>
+    <t>49,35%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -686,7 +698,7 @@
     <t>89,65%</t>
   </si>
   <si>
-    <t>67,59%</t>
+    <t>70,16%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -707,13 +719,13 @@
     <t>3,35%</t>
   </si>
   <si>
-    <t>14,14%</t>
+    <t>14,52%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>9,07%</t>
+    <t>8,08%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -722,19 +734,19 @@
     <t>96,65%</t>
   </si>
   <si>
-    <t>85,86%</t>
+    <t>85,48%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>90,93%</t>
+    <t>91,92%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>28,56%</t>
+    <t>28,69%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -743,13 +755,13 @@
     <t>5,64%</t>
   </si>
   <si>
-    <t>17,76%</t>
+    <t>17,47%</t>
   </si>
   <si>
     <t>91,05%</t>
   </si>
   <si>
-    <t>71,44%</t>
+    <t>71,31%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -758,573 +770,567 @@
     <t>94,36%</t>
   </si>
   <si>
-    <t>82,24%</t>
+    <t>82,53%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>10,28%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>89,72%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>95,6%</t>
   </si>
   <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2015 (Tasa respuesta: 8,05%)</t>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2016 (Tasa respuesta: 8,05%)</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>19,9%</t>
+    <t>20,63%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>13,27%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>80,1%</t>
+    <t>79,37%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>86,73%</t>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
     <t>25,31%</t>
   </si>
   <si>
@@ -1448,9 +1454,6 @@
     <t>10,76%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
     <t>15,14%</t>
   </si>
   <si>
@@ -1476,9 +1479,6 @@
   </si>
   <si>
     <t>84,86%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
   </si>
   <si>
     <t>91,46%</t>
@@ -1908,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3894BF6D-8199-48CC-89F8-4EC6C4CF8F15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA73E91-C933-4D6C-82AD-ABE3F299B1AA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3308,7 +3308,7 @@
         <v>159</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3323,13 @@
         <v>428797</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>192</v>
@@ -3338,13 +3338,13 @@
         <v>196496</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>602</v>
@@ -3353,13 +3353,13 @@
         <v>625293</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,7 +3415,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +3439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6014EC-2054-47F9-8106-1753DDC59400}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493FDA56-18D3-4FC9-BC75-FFB3C99796F5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3456,7 +3456,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3561,39 +3561,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,39 +3606,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,39 +3651,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3700,13 @@
         <v>947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3715,13 +3715,13 @@
         <v>998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3730,13 +3730,13 @@
         <v>1945</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,10 +3751,10 @@
         <v>23336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -3766,10 +3766,10 @@
         <v>15233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -3781,10 +3781,10 @@
         <v>38570</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -3855,13 +3855,13 @@
         <v>1007</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3885,13 +3885,13 @@
         <v>1007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,10 +3906,10 @@
         <v>10715</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -3924,7 +3924,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3936,10 +3936,10 @@
         <v>16826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -4010,13 +4010,13 @@
         <v>1891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4025,13 +4025,13 @@
         <v>904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4040,13 +4040,13 @@
         <v>2795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,10 +4061,10 @@
         <v>23200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -4076,10 +4076,10 @@
         <v>19956</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -4091,13 +4091,13 @@
         <v>43155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4165,13 @@
         <v>1965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4195,13 +4195,13 @@
         <v>1965</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,10 +4216,10 @@
         <v>8245</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -4234,7 +4234,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4246,10 +4246,10 @@
         <v>17028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -4323,10 +4323,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4338,10 +4338,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4353,10 +4353,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,7 +4374,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -4389,7 +4389,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4404,7 +4404,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4478,10 +4478,10 @@
         <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4490,13 +4490,13 @@
         <v>947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -4505,13 +4505,13 @@
         <v>947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,7 +4529,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
@@ -4541,10 +4541,10 @@
         <v>27299</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -4556,10 +4556,10 @@
         <v>53297</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>26</v>
@@ -4630,13 +4630,13 @@
         <v>2017</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4648,10 +4648,10 @@
         <v>15</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -4660,13 +4660,13 @@
         <v>2017</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,10 +4681,10 @@
         <v>20519</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -4699,7 +4699,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -4711,10 +4711,10 @@
         <v>33747</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -4785,13 +4785,13 @@
         <v>7827</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -4800,13 +4800,13 @@
         <v>2849</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -4815,13 +4815,13 @@
         <v>10676</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4836,13 @@
         <v>134750</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7">
         <v>91</v>
@@ -4851,13 +4851,13 @@
         <v>97312</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M29" s="7">
         <v>221</v>
@@ -4866,13 +4866,13 @@
         <v>232062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,7 +4928,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4952,7 +4952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F224F1-FD5E-4B92-97D1-4C715A488072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40E3C3F-AE96-45A4-82BB-891650D7EDAE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4969,7 +4969,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5076,13 +5076,13 @@
         <v>3108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5091,13 +5091,13 @@
         <v>2566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5106,13 +5106,13 @@
         <v>5674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5127,13 @@
         <v>55469</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -5142,10 +5142,10 @@
         <v>38318</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5157,13 +5157,13 @@
         <v>93787</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5231,13 @@
         <v>3153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5249,10 +5249,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5261,13 +5261,13 @@
         <v>3153</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5282,13 @@
         <v>79633</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H8" s="7">
         <v>41</v>
@@ -5300,7 +5300,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -5312,13 +5312,13 @@
         <v>122330</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5386,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5401,13 +5401,13 @@
         <v>815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5416,13 +5416,13 @@
         <v>1680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,10 +5437,10 @@
         <v>20389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -5452,10 +5452,10 @@
         <v>11686</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5467,10 +5467,10 @@
         <v>32075</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -5541,13 +5541,13 @@
         <v>898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5559,10 +5559,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5571,13 +5571,13 @@
         <v>898</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,10 +5592,10 @@
         <v>31567</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -5610,7 +5610,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5622,10 +5622,10 @@
         <v>61502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -5699,10 +5699,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5714,10 +5714,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5729,10 +5729,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,7 +5750,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5765,7 +5765,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5780,7 +5780,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -5851,13 +5851,13 @@
         <v>1938</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5869,10 +5869,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5881,13 +5881,13 @@
         <v>1938</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,10 +5902,10 @@
         <v>20496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5920,7 +5920,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -5932,10 +5932,10 @@
         <v>27922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -6006,13 +6006,13 @@
         <v>2241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -6021,13 +6021,13 @@
         <v>1953</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -6036,13 +6036,13 @@
         <v>4194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,10 +6057,10 @@
         <v>76101</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>26</v>
@@ -6072,10 +6072,10 @@
         <v>53729</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -6087,13 +6087,13 @@
         <v>129830</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,10 +6164,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6179,10 +6179,10 @@
         <v>15</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6194,10 +6194,10 @@
         <v>15</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,7 +6215,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -6230,7 +6230,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -6245,7 +6245,7 @@
         <v>26</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>30</v>
@@ -6316,13 +6316,13 @@
         <v>12203</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -6331,13 +6331,13 @@
         <v>5334</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -6346,13 +6346,13 @@
         <v>17538</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>346</v>
+        <v>227</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>333</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6367,13 @@
         <v>337798</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H29" s="7">
         <v>202</v>
@@ -6382,13 +6382,13 @@
         <v>210964</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M29" s="7">
         <v>512</v>
@@ -6397,13 +6397,13 @@
         <v>548761</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>336</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>354</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,7 +6459,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6483,7 +6483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E43F87-E083-4C92-A8B7-1A596B829DB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45824436-210B-4993-978B-CC639C71727D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6500,7 +6500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6607,13 +6607,13 @@
         <v>774</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6622,13 +6622,13 @@
         <v>1365</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6637,13 +6637,13 @@
         <v>2139</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,10 +6658,10 @@
         <v>19797</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -6673,13 +6673,13 @@
         <v>13478</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -6688,13 +6688,13 @@
         <v>33275</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,13 +6762,13 @@
         <v>4210</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6777,13 +6777,13 @@
         <v>2482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6792,13 +6792,13 @@
         <v>6693</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,13 +6813,13 @@
         <v>41791</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H8" s="7">
         <v>56</v>
@@ -6828,13 +6828,13 @@
         <v>46139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M8" s="7">
         <v>85</v>
@@ -6843,13 +6843,13 @@
         <v>87929</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,13 +6917,13 @@
         <v>7449</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -6932,13 +6932,13 @@
         <v>8458</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>395</v>
+        <v>316</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -6947,13 +6947,13 @@
         <v>15907</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,13 +6968,13 @@
         <v>43281</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -6983,10 +6983,10 @@
         <v>40463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>404</v>
@@ -7233,7 +7233,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>423</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7245,10 +7245,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7257,13 +7257,13 @@
         <v>573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>346</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,10 +7278,10 @@
         <v>18869</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>426</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -7308,10 +7308,10 @@
         <v>30849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7382,13 +7382,13 @@
         <v>8277</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7397,13 +7397,13 @@
         <v>1831</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -7412,13 +7412,13 @@
         <v>10107</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,13 +7433,13 @@
         <v>24429</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -7448,13 +7448,13 @@
         <v>30640</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -7463,13 +7463,13 @@
         <v>55070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,13 +7537,13 @@
         <v>11716</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -7552,13 +7552,13 @@
         <v>13638</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -7567,13 +7567,13 @@
         <v>25354</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,13 +7588,13 @@
         <v>62661</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -7603,13 +7603,13 @@
         <v>61442</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M23" s="7">
         <v>145</v>
@@ -7618,13 +7618,13 @@
         <v>124104</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,10 +7695,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7707,13 +7707,13 @@
         <v>2213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -7722,13 +7722,13 @@
         <v>2213</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,7 +7746,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -7758,10 +7758,10 @@
         <v>64923</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -7773,10 +7773,10 @@
         <v>131978</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -7847,13 +7847,13 @@
         <v>37986</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>469</v>
+        <v>248</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -7862,13 +7862,13 @@
         <v>30860</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
@@ -7877,13 +7877,13 @@
         <v>68846</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7898,13 @@
         <v>315032</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>479</v>
+        <v>255</v>
       </c>
       <c r="H29" s="7">
         <v>433</v>
@@ -7990,7 +7990,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6907S1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8FF13D-54E9-4CFA-B27B-3B8476FF688C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{942283B0-DAEB-4805-A142-D765A1BF6A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6D9A738-3DBC-4321-BC40-24788E44E787}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{663A9A98-BCE6-4764-AF13-AF690EE6F911}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="476">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,16 +71,16 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,5%</t>
+    <t>15,52%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>91,03%</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>83,5%</t>
+    <t>84,48%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>93,12%</t>
   </si>
   <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,43 @@
     <t>8,13%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>20,13%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>18,94%</t>
+    <t>21,04%</t>
   </si>
   <si>
     <t>7,47%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>91,87%</t>
   </si>
   <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>79,87%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>81,06%</t>
+    <t>78,96%</t>
   </si>
   <si>
     <t>92,53%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -191,49 +185,49 @@
     <t>10,68%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>28,11%</t>
+    <t>27,7%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>71,89%</t>
+    <t>72,3%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -242,736 +236,706 @@
     <t>6,75%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>29,2%</t>
+    <t>30,99%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
     <t>99,2%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>20,72%</t>
+    <t>17,16%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>35,68%</t>
+    <t>35,88%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>15,58%</t>
+    <t>18,46%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>79,28%</t>
+    <t>82,84%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>64,32%</t>
+    <t>64,12%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>84,42%</t>
+    <t>81,54%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>14,86%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>7,62%</t>
+    <t>5,97%</t>
   </si>
   <si>
     <t>97,23%</t>
   </si>
   <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>85,14%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>92,38%</t>
+    <t>94,03%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -989,187 +953,193 @@
     <t>8,64%</t>
   </si>
   <si>
-    <t>26,69%</t>
+    <t>26,75%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>19,79%</t>
+    <t>19,81%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>73,31%</t>
+    <t>73,25%</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>80,21%</t>
+    <t>80,19%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>8,76%</t>
+    <t>9,59%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>11,83%</t>
+    <t>11,14%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
     <t>96,9%</t>
   </si>
   <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>16,11%</t>
+    <t>18,66%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>96,24%</t>
   </si>
   <si>
-    <t>83,89%</t>
+    <t>81,34%</t>
   </si>
   <si>
     <t>90,8%</t>
   </si>
   <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
   </si>
   <si>
     <t>5,11%</t>
@@ -1178,31 +1148,31 @@
     <t>1,62%</t>
   </si>
   <si>
-    <t>13,55%</t>
+    <t>13,72%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>90,85%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>94,89%</t>
   </si>
   <si>
-    <t>86,45%</t>
+    <t>86,28%</t>
   </si>
   <si>
     <t>98,38%</t>
@@ -1211,292 +1181,292 @@
     <t>92,93%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
   </si>
   <si>
     <t>15,96%</t>
   </si>
   <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>87,42%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>93,78%</t>
-  </si>
-  <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>15,14%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>84,86%</t>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA73E91-C933-4D6C-82AD-ABE3F299B1AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D3898-E937-4440-A20A-223FB4624C9A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2190,10 +2160,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2202,13 +2172,13 @@
         <v>1959</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -2217,13 +2187,13 @@
         <v>7846</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2208,13 @@
         <v>66510</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -2253,10 +2223,10 @@
         <v>30729</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -2268,13 +2238,13 @@
         <v>97238</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,7 +2300,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2342,13 +2312,13 @@
         <v>3912</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2357,13 +2327,13 @@
         <v>1996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2372,13 +2342,13 @@
         <v>5908</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2363,13 @@
         <v>32703</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -2408,10 +2378,10 @@
         <v>19728</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -2423,13 +2393,13 @@
         <v>52431</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2455,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2497,13 +2467,13 @@
         <v>3934</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2512,13 +2482,13 @@
         <v>2029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2527,13 +2497,13 @@
         <v>5963</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2518,13 @@
         <v>54389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2563,10 +2533,10 @@
         <v>20677</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -2578,13 +2548,13 @@
         <v>75066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,7 +2610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2652,13 +2622,13 @@
         <v>2834</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2667,13 +2637,13 @@
         <v>1994</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2682,13 +2652,13 @@
         <v>4828</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2673,13 @@
         <v>20120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2718,10 +2688,10 @@
         <v>4976</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -2733,13 +2703,13 @@
         <v>25097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,7 +2765,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2807,13 +2777,13 @@
         <v>5955</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2822,13 +2792,13 @@
         <v>991</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2837,13 +2807,13 @@
         <v>6946</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2828,13 @@
         <v>35855</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2873,10 +2843,10 @@
         <v>13103</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -2888,13 +2858,13 @@
         <v>48957</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,7 +2920,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2962,13 +2932,13 @@
         <v>10705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2977,13 +2947,13 @@
         <v>6199</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -2992,13 +2962,13 @@
         <v>16904</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +2983,13 @@
         <v>77743</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -3028,13 +2998,13 @@
         <v>37336</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>112</v>
@@ -3043,13 +3013,13 @@
         <v>115079</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,7 +3075,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3117,13 +3087,13 @@
         <v>6438</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -3132,13 +3102,13 @@
         <v>7386</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -3147,13 +3117,13 @@
         <v>13823</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3138,13 @@
         <v>102477</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -3183,13 +3153,13 @@
         <v>42400</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M26" s="7">
         <v>143</v>
@@ -3198,13 +3168,13 @@
         <v>144878</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3242,13 @@
         <v>43508</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -3287,13 +3257,13 @@
         <v>23625</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -3302,13 +3272,13 @@
         <v>67134</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3293,13 @@
         <v>428797</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>192</v>
@@ -3338,13 +3308,13 @@
         <v>196496</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="M29" s="7">
         <v>602</v>
@@ -3353,13 +3323,13 @@
         <v>625293</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,7 +3385,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +3409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493FDA56-18D3-4FC9-BC75-FFB3C99796F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA9B27-0702-4DC6-BF8C-BA6348BF2A13}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3456,7 +3426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3561,39 +3531,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,39 +3576,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,39 +3621,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3670,13 @@
         <v>947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3715,13 +3685,13 @@
         <v>998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3730,13 +3700,13 @@
         <v>1945</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,10 +3721,10 @@
         <v>23336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -3766,10 +3736,10 @@
         <v>15233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -3781,10 +3751,10 @@
         <v>38570</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -3843,7 +3813,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3855,13 +3825,13 @@
         <v>1007</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3873,10 +3843,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3885,13 +3855,13 @@
         <v>1007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,10 +3876,10 @@
         <v>10715</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -3924,7 +3894,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3936,10 +3906,10 @@
         <v>16826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -3998,7 +3968,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4010,13 +3980,13 @@
         <v>1891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4025,13 +3995,13 @@
         <v>904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4040,13 +4010,13 @@
         <v>2795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,10 +4031,10 @@
         <v>23200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -4076,10 +4046,10 @@
         <v>19956</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -4091,13 +4061,13 @@
         <v>43155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,7 +4123,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4165,13 +4135,13 @@
         <v>1965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4183,10 +4153,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4195,13 +4165,13 @@
         <v>1965</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,10 +4186,10 @@
         <v>8245</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -4234,7 +4204,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4246,10 +4216,10 @@
         <v>17028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -4308,7 +4278,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4323,10 +4293,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4338,10 +4308,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4353,10 +4323,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,7 +4344,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -4389,7 +4359,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4404,7 +4374,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4463,7 +4433,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4478,10 +4448,10 @@
         <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4490,13 +4460,13 @@
         <v>947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -4505,13 +4475,13 @@
         <v>947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,7 +4499,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
@@ -4541,10 +4511,10 @@
         <v>27299</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -4556,10 +4526,10 @@
         <v>53297</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>26</v>
@@ -4618,7 +4588,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4630,13 +4600,13 @@
         <v>2017</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4648,10 +4618,10 @@
         <v>15</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -4660,13 +4630,13 @@
         <v>2017</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,10 +4651,10 @@
         <v>20519</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -4699,7 +4669,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -4711,10 +4681,10 @@
         <v>33747</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -4785,13 +4755,13 @@
         <v>7827</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -4800,13 +4770,13 @@
         <v>2849</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -4815,13 +4785,13 @@
         <v>10676</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4806,13 @@
         <v>134750</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H29" s="7">
         <v>91</v>
@@ -4851,13 +4821,13 @@
         <v>97312</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="M29" s="7">
         <v>221</v>
@@ -4866,13 +4836,13 @@
         <v>232062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,7 +4898,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4952,7 +4922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40E3C3F-AE96-45A4-82BB-891650D7EDAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8786E876-2CC9-4896-A739-209514FA41B1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4969,7 +4939,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5076,13 +5046,13 @@
         <v>3108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5091,13 +5061,13 @@
         <v>2566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5106,13 +5076,13 @@
         <v>5674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5097,13 @@
         <v>55469</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -5142,10 +5112,10 @@
         <v>38318</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5157,13 +5127,13 @@
         <v>93787</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5201,13 @@
         <v>3153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5249,10 +5219,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5261,13 +5231,13 @@
         <v>3153</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>282</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5252,13 @@
         <v>79633</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H8" s="7">
         <v>41</v>
@@ -5300,7 +5270,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -5312,13 +5282,13 @@
         <v>122330</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,7 +5344,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5386,13 +5356,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5401,13 +5371,13 @@
         <v>815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5416,13 +5386,13 @@
         <v>1680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,10 +5407,10 @@
         <v>20389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -5452,10 +5422,10 @@
         <v>11686</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5467,10 +5437,10 @@
         <v>32075</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -5529,7 +5499,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5541,13 +5511,13 @@
         <v>898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5559,10 +5529,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5571,13 +5541,13 @@
         <v>898</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,10 +5562,10 @@
         <v>31567</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -5610,7 +5580,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5622,10 +5592,10 @@
         <v>61502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -5684,7 +5654,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5699,10 +5669,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5714,10 +5684,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5729,10 +5699,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,7 +5720,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5765,7 +5735,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5780,7 +5750,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -5839,7 +5809,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5851,13 +5821,13 @@
         <v>1938</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5869,10 +5839,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5881,13 +5851,13 @@
         <v>1938</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,10 +5872,10 @@
         <v>20496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5920,7 +5890,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -5932,10 +5902,10 @@
         <v>27922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5994,7 +5964,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6006,13 +5976,13 @@
         <v>2241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -6021,13 +5991,13 @@
         <v>1953</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -6036,13 +6006,13 @@
         <v>4194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,10 +6027,10 @@
         <v>76101</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>26</v>
@@ -6072,10 +6042,10 @@
         <v>53729</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -6087,13 +6057,13 @@
         <v>129830</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>335</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,7 +6119,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6164,10 +6134,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6179,10 +6149,10 @@
         <v>15</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6194,10 +6164,10 @@
         <v>15</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,7 +6185,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -6230,7 +6200,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -6245,7 +6215,7 @@
         <v>26</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>30</v>
@@ -6316,13 +6286,13 @@
         <v>12203</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -6331,13 +6301,13 @@
         <v>5334</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -6346,13 +6316,13 @@
         <v>17538</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>227</v>
+        <v>336</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6337,13 @@
         <v>337798</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="H29" s="7">
         <v>202</v>
@@ -6382,13 +6352,13 @@
         <v>210964</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="M29" s="7">
         <v>512</v>
@@ -6397,13 +6367,13 @@
         <v>548761</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>345</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>232</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,7 +6429,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6483,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45824436-210B-4993-978B-CC639C71727D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0DC11F-6E13-46AF-AA11-E3C7DC532CFC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6500,7 +6470,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6607,13 +6577,13 @@
         <v>774</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6622,13 +6592,13 @@
         <v>1365</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6637,13 +6607,13 @@
         <v>2139</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,10 +6628,10 @@
         <v>19797</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -6673,13 +6643,13 @@
         <v>13478</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -6688,13 +6658,13 @@
         <v>33275</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,13 +6732,13 @@
         <v>4210</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6777,13 +6747,13 @@
         <v>2482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6792,13 +6762,13 @@
         <v>6693</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,13 +6783,13 @@
         <v>41791</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H8" s="7">
         <v>56</v>
@@ -6828,13 +6798,13 @@
         <v>46139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="M8" s="7">
         <v>85</v>
@@ -6843,13 +6813,13 @@
         <v>87929</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,7 +6875,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6917,13 +6887,13 @@
         <v>7449</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -6932,13 +6902,13 @@
         <v>8458</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>395</v>
+        <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>316</v>
+        <v>386</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -6947,13 +6917,13 @@
         <v>15907</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,13 +6938,13 @@
         <v>43281</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -6983,13 +6953,13 @@
         <v>40463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>403</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -6998,13 +6968,13 @@
         <v>83744</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,7 +7030,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7072,13 +7042,13 @@
         <v>4987</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7087,13 +7057,13 @@
         <v>873</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -7102,13 +7072,13 @@
         <v>5860</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,10 +7093,10 @@
         <v>37147</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -7138,10 +7108,10 @@
         <v>61286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -7153,13 +7123,13 @@
         <v>98433</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,7 +7185,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7227,13 +7197,13 @@
         <v>573</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>422</v>
+        <v>37</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7245,10 +7215,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7257,13 +7227,13 @@
         <v>573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,10 +7248,10 @@
         <v>18869</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -7296,7 +7266,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -7308,10 +7278,10 @@
         <v>30849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7370,7 +7340,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7382,13 +7352,13 @@
         <v>8277</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7397,13 +7367,13 @@
         <v>1831</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -7412,13 +7382,13 @@
         <v>10107</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,13 +7403,13 @@
         <v>24429</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -7448,13 +7418,13 @@
         <v>30640</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -7463,13 +7433,13 @@
         <v>55070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,7 +7495,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7537,13 +7507,13 @@
         <v>11716</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -7552,13 +7522,13 @@
         <v>13638</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -7567,13 +7537,13 @@
         <v>25354</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,13 +7558,13 @@
         <v>62661</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -7603,13 +7573,13 @@
         <v>61442</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="M23" s="7">
         <v>145</v>
@@ -7618,13 +7588,13 @@
         <v>124104</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,7 +7650,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7695,10 +7665,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7707,13 +7677,13 @@
         <v>2213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -7722,13 +7692,13 @@
         <v>2213</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,7 +7716,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -7758,10 +7728,10 @@
         <v>64923</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -7773,10 +7743,10 @@
         <v>131978</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>469</v>
+        <v>417</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -7847,13 +7817,13 @@
         <v>37986</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>248</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -7862,13 +7832,13 @@
         <v>30860</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
@@ -7877,13 +7847,13 @@
         <v>68846</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7868,13 @@
         <v>315032</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>255</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>433</v>
@@ -7913,13 +7883,13 @@
         <v>330351</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="M29" s="7">
         <v>736</v>
@@ -7928,13 +7898,13 @@
         <v>645382</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,7 +7960,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6907S1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{942283B0-DAEB-4805-A142-D765A1BF6A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BBF824E-8C04-4AB0-B514-8C85CC488B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{663A9A98-BCE6-4764-AF13-AF690EE6F911}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D1F9051A-4F34-493F-A99A-EBC6C46EB686}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="482">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -527,7 +527,37 @@
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -572,9 +602,6 @@
     <t>42,59%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>26,42%</t>
   </si>
   <si>
@@ -599,46 +626,37 @@
     <t>71,87%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
   </si>
   <si>
     <t>19,25%</t>
@@ -938,15 +956,9 @@
     <t>94,03%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
     <t>90,51%</t>
   </si>
   <si>
@@ -1085,388 +1097,394 @@
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D3898-E937-4440-A20A-223FB4624C9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6C616A-5740-4CDA-950B-0C34BD08BEA6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3409,7 +3427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA9B27-0702-4DC6-BF8C-BA6348BF2A13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7E4A4E-C12B-47EC-83BA-0C471327DE4C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3527,43 +3545,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>850</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>850</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,43 +3596,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15186</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I5" s="7">
+        <v>14149</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="N5" s="7">
+        <v>29335</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,43 +3647,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16036</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I6" s="7">
+        <v>14149</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="N6" s="7">
+        <v>30185</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3706,13 @@
         <v>947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3685,13 +3721,13 @@
         <v>998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3700,13 +3736,13 @@
         <v>1945</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,10 +3757,10 @@
         <v>23336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -3736,10 +3772,10 @@
         <v>15233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -3751,10 +3787,10 @@
         <v>38570</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -3825,13 +3861,13 @@
         <v>1007</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3843,10 +3879,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3855,13 +3891,13 @@
         <v>1007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,10 +3912,10 @@
         <v>10715</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -3894,7 +3930,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3906,10 +3942,10 @@
         <v>16826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -3974,19 +4010,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1891</v>
+        <v>1041</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3995,28 +4031,28 @@
         <v>904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>2795</v>
+        <v>1946</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,49 +4061,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>23200</v>
+        <v>8014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>19956</v>
+        <v>5807</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>43155</v>
+        <v>13820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,10 +4112,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7">
-        <v>25091</v>
+        <v>9055</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4091,10 +4127,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I15" s="7">
-        <v>20860</v>
+        <v>6711</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4106,10 +4142,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N15" s="7">
-        <v>45950</v>
+        <v>15766</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4135,13 +4171,13 @@
         <v>1965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4153,10 +4189,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4165,13 +4201,13 @@
         <v>1965</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,10 +4222,10 @@
         <v>8245</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -4204,7 +4240,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4216,10 +4252,10 @@
         <v>17028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -4293,10 +4329,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4308,10 +4344,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4323,10 +4359,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,7 +4380,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -4359,7 +4395,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4374,7 +4410,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4448,10 +4484,10 @@
         <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4460,13 +4496,13 @@
         <v>947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -4475,13 +4511,13 @@
         <v>947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,7 +4535,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
@@ -4511,10 +4547,10 @@
         <v>27299</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -4526,10 +4562,10 @@
         <v>53297</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>26</v>
@@ -4600,13 +4636,13 @@
         <v>2017</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4618,10 +4654,10 @@
         <v>15</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -4630,13 +4666,13 @@
         <v>2017</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,10 +4687,10 @@
         <v>20519</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -4669,7 +4705,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -4681,10 +4717,10 @@
         <v>33747</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -4755,13 +4791,13 @@
         <v>7827</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -4770,13 +4806,13 @@
         <v>2849</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -4785,13 +4821,13 @@
         <v>10676</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,10 +4842,10 @@
         <v>134750</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>29</v>
@@ -4821,13 +4857,13 @@
         <v>97312</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M29" s="7">
         <v>221</v>
@@ -4836,13 +4872,13 @@
         <v>232062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,7 +4958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8786E876-2CC9-4896-A739-209514FA41B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1E7C21-90C6-4A33-ABF7-8D1CA3B9C313}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4939,7 +4975,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5046,13 +5082,13 @@
         <v>3108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5061,13 +5097,13 @@
         <v>2566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5076,13 +5112,13 @@
         <v>5674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5133,13 @@
         <v>55469</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -5112,10 +5148,10 @@
         <v>38318</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5127,13 +5163,13 @@
         <v>93787</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5237,13 @@
         <v>3153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5219,10 +5255,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5231,10 +5267,10 @@
         <v>3153</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>64</v>
@@ -5252,13 +5288,13 @@
         <v>79633</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H8" s="7">
         <v>41</v>
@@ -5270,7 +5306,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -5282,13 +5318,13 @@
         <v>122330</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5392,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5371,13 +5407,13 @@
         <v>815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5386,13 +5422,13 @@
         <v>1680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,10 +5443,10 @@
         <v>20389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -5422,10 +5458,10 @@
         <v>11686</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5437,10 +5473,10 @@
         <v>32075</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>26</v>
@@ -5511,13 +5547,13 @@
         <v>898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5529,7 +5565,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>132</v>
@@ -5541,13 +5577,13 @@
         <v>898</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,10 +5598,10 @@
         <v>31567</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -5592,10 +5628,10 @@
         <v>61502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -5669,10 +5705,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5684,10 +5720,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5699,10 +5735,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,7 +5756,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5735,7 +5771,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5750,7 +5786,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -5821,13 +5857,13 @@
         <v>1938</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5839,10 +5875,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5851,13 +5887,13 @@
         <v>1938</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,10 +5908,10 @@
         <v>20496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5890,7 +5926,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -5902,10 +5938,10 @@
         <v>27922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5976,13 +6012,13 @@
         <v>2241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5991,13 +6027,13 @@
         <v>1953</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -6006,10 +6042,10 @@
         <v>4194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>118</v>
@@ -6027,10 +6063,10 @@
         <v>76101</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>26</v>
@@ -6042,10 +6078,10 @@
         <v>53729</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>26</v>
@@ -6057,13 +6093,13 @@
         <v>129830</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,10 +6170,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6149,10 +6185,10 @@
         <v>15</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6164,10 +6200,10 @@
         <v>15</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,7 +6221,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -6200,7 +6236,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -6215,7 +6251,7 @@
         <v>26</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>30</v>
@@ -6286,13 +6322,13 @@
         <v>12203</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -6301,13 +6337,13 @@
         <v>5334</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -6316,13 +6352,13 @@
         <v>17538</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6373,13 @@
         <v>337798</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H29" s="7">
         <v>202</v>
@@ -6352,13 +6388,13 @@
         <v>210964</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M29" s="7">
         <v>512</v>
@@ -6367,13 +6403,13 @@
         <v>548761</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,7 +6489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0DC11F-6E13-46AF-AA11-E3C7DC532CFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B103FA6-B2E1-44C1-AD6F-3C53A4C84F63}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6470,7 +6506,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6574,46 +6610,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>774</v>
+        <v>841</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1365</v>
+        <v>1470</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>2139</v>
+        <v>2312</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6661,13 @@
         <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>19797</v>
+        <v>23228</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -6640,31 +6676,31 @@
         <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>13478</v>
+        <v>14285</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>33275</v>
+        <v>37512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,7 +6712,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>20571</v>
+        <v>24069</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6691,7 +6727,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>14843</v>
+        <v>15755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6706,7 +6742,7 @@
         <v>58</v>
       </c>
       <c r="N6" s="7">
-        <v>35414</v>
+        <v>39824</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6729,46 +6765,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>4210</v>
+        <v>4103</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>2482</v>
+        <v>2299</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>6693</v>
+        <v>6401</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,46 +6816,46 @@
         <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>41791</v>
+        <v>42177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H8" s="7">
         <v>56</v>
       </c>
       <c r="I8" s="7">
-        <v>46139</v>
+        <v>43144</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M8" s="7">
         <v>85</v>
       </c>
       <c r="N8" s="7">
-        <v>87929</v>
+        <v>85322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,7 +6867,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>46001</v>
+        <v>46280</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6846,7 +6882,7 @@
         <v>59</v>
       </c>
       <c r="I9" s="7">
-        <v>48621</v>
+        <v>45443</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6861,7 +6897,7 @@
         <v>91</v>
       </c>
       <c r="N9" s="7">
-        <v>94622</v>
+        <v>91723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6884,46 +6920,46 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>7449</v>
+        <v>7227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>8458</v>
+        <v>7882</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>15907</v>
+        <v>15110</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,46 +6971,46 @@
         <v>45</v>
       </c>
       <c r="D11" s="7">
-        <v>43281</v>
+        <v>42268</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
       </c>
       <c r="I11" s="7">
-        <v>40463</v>
+        <v>38044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>292</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
       </c>
       <c r="N11" s="7">
-        <v>83744</v>
+        <v>80312</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,7 +7022,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>50730</v>
+        <v>49495</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7001,7 +7037,7 @@
         <v>70</v>
       </c>
       <c r="I12" s="7">
-        <v>48921</v>
+        <v>45926</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7016,7 +7052,7 @@
         <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>99651</v>
+        <v>95422</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7039,46 +7075,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>4987</v>
+        <v>4556</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>873</v>
+        <v>766</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>5860</v>
+        <v>5322</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,13 +7126,13 @@
         <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>37147</v>
+        <v>35797</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -7105,13 +7141,13 @@
         <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>61286</v>
+        <v>79886</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -7120,16 +7156,16 @@
         <v>94</v>
       </c>
       <c r="N14" s="7">
-        <v>98433</v>
+        <v>115683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,7 +7177,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="7">
-        <v>42134</v>
+        <v>40353</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7156,7 +7192,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="7">
-        <v>62159</v>
+        <v>80652</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7171,7 +7207,7 @@
         <v>97</v>
       </c>
       <c r="N15" s="7">
-        <v>104293</v>
+        <v>121005</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7194,16 +7230,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>37</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7215,25 +7251,25 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,13 +7281,13 @@
         <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>18869</v>
+        <v>17236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -7260,13 +7296,13 @@
         <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>11981</v>
+        <v>10986</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -7275,13 +7311,13 @@
         <v>54</v>
       </c>
       <c r="N17" s="7">
-        <v>30849</v>
+        <v>28222</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7296,7 +7332,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>19442</v>
+        <v>17757</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7311,7 +7347,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>11981</v>
+        <v>10986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7326,7 +7362,7 @@
         <v>55</v>
       </c>
       <c r="N18" s="7">
-        <v>31422</v>
+        <v>28743</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7349,46 +7385,46 @@
         <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>8277</v>
+        <v>8050</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1831</v>
+        <v>1693</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>427</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>10107</v>
+        <v>9744</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,46 +7436,46 @@
         <v>30</v>
       </c>
       <c r="D20" s="7">
-        <v>24429</v>
+        <v>23566</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
       </c>
       <c r="I20" s="7">
-        <v>30640</v>
+        <v>28522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
       </c>
       <c r="N20" s="7">
-        <v>55070</v>
+        <v>52087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,7 +7487,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>32706</v>
+        <v>31616</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7466,7 +7502,7 @@
         <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>32471</v>
+        <v>30215</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7481,7 +7517,7 @@
         <v>89</v>
       </c>
       <c r="N21" s="7">
-        <v>65177</v>
+        <v>61831</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7504,46 +7540,46 @@
         <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>11716</v>
+        <v>11477</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
       </c>
       <c r="I22" s="7">
-        <v>13638</v>
+        <v>12996</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
       </c>
       <c r="N22" s="7">
-        <v>25354</v>
+        <v>24473</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,46 +7591,46 @@
         <v>59</v>
       </c>
       <c r="D23" s="7">
-        <v>62661</v>
+        <v>61701</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
       </c>
       <c r="I23" s="7">
-        <v>61442</v>
+        <v>57531</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M23" s="7">
         <v>145</v>
       </c>
       <c r="N23" s="7">
-        <v>124104</v>
+        <v>119232</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,7 +7642,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="7">
-        <v>74377</v>
+        <v>73178</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7621,7 +7657,7 @@
         <v>103</v>
       </c>
       <c r="I24" s="7">
-        <v>75080</v>
+        <v>70527</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7636,7 +7672,7 @@
         <v>173</v>
       </c>
       <c r="N24" s="7">
-        <v>149458</v>
+        <v>143705</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7665,40 +7701,40 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>2213</v>
+        <v>1731</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>325</v>
+        <v>460</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>2213</v>
+        <v>1731</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,13 +7746,13 @@
         <v>57</v>
       </c>
       <c r="D26" s="7">
-        <v>67056</v>
+        <v>56757</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -7725,13 +7761,13 @@
         <v>67</v>
       </c>
       <c r="I26" s="7">
-        <v>64923</v>
+        <v>52979</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>328</v>
+        <v>464</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -7740,13 +7776,13 @@
         <v>124</v>
       </c>
       <c r="N26" s="7">
-        <v>131978</v>
+        <v>109736</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -7761,7 +7797,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="7">
-        <v>67056</v>
+        <v>56757</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7776,7 +7812,7 @@
         <v>69</v>
       </c>
       <c r="I27" s="7">
-        <v>67136</v>
+        <v>54710</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7791,7 +7827,7 @@
         <v>126</v>
       </c>
       <c r="N27" s="7">
-        <v>134191</v>
+        <v>111467</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7814,46 +7850,46 @@
         <v>35</v>
       </c>
       <c r="D28" s="7">
-        <v>37986</v>
+        <v>36776</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
       </c>
       <c r="I28" s="7">
-        <v>30860</v>
+        <v>28837</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
       </c>
       <c r="N28" s="7">
-        <v>68846</v>
+        <v>65613</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>387</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,46 +7901,46 @@
         <v>303</v>
       </c>
       <c r="D29" s="7">
-        <v>315032</v>
+        <v>302729</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>44</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="H29" s="7">
         <v>433</v>
       </c>
       <c r="I29" s="7">
-        <v>330351</v>
+        <v>325378</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="M29" s="7">
         <v>736</v>
       </c>
       <c r="N29" s="7">
-        <v>645382</v>
+        <v>628107</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,7 +7952,7 @@
         <v>338</v>
       </c>
       <c r="D30" s="7">
-        <v>353018</v>
+        <v>339505</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -7931,7 +7967,7 @@
         <v>474</v>
       </c>
       <c r="I30" s="7">
-        <v>361211</v>
+        <v>354215</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -7946,7 +7982,7 @@
         <v>812</v>
       </c>
       <c r="N30" s="7">
-        <v>714228</v>
+        <v>693720</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
